--- a/web/uploads/inventory/BocconciniSales.xlsx
+++ b/web/uploads/inventory/BocconciniSales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Código Interno</t>
   </si>
@@ -34,19 +34,7 @@
     <t>SETTING BRUSH MAQUILLAJE</t>
   </si>
   <si>
-    <t>JUEGO BROCHAS MAQUILLAJE STARTER SET 2.0</t>
-  </si>
-  <si>
-    <t>JUEGO DE BROCHAS NAKED 5</t>
-  </si>
-  <si>
-    <t>BOTELLA HIDRATACIÓN</t>
-  </si>
-  <si>
-    <t>MARCA COPAS FIESTA</t>
-  </si>
-  <si>
-    <t>prueba</t>
+    <t>VENTA DIRECTA</t>
   </si>
 </sst>
 </file>
@@ -385,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -428,62 +416,10 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
